--- a/Statystyki_2018/obj/Release/Package/PackageTmp/Template/aglg2.xlsx
+++ b/Statystyki_2018/obj/Release/Package/PackageTmp/Template/aglg2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\shared\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DA440D-AE95-4F17-80FA-EBB557DB22C0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA037FC9-C2C9-48BA-B3A1-06D59015C0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -574,7 +574,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -792,13 +792,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -915,72 +939,6 @@
     <xf numFmtId="10" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -988,34 +946,115 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1388,195 +1427,210 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="O2" sqref="O2:W2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="10" width="8.7109375" customWidth="1"/>
     <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="16" width="7.7109375" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" customWidth="1"/>
+    <col min="17" max="17" width="8" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
     <col min="19" max="19" width="8.42578125" customWidth="1"/>
+    <col min="25" max="25" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="70" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="70" t="s">
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70" t="s">
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="72" t="s">
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73" t="s">
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="73"/>
-      <c r="R2" s="73"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="73"/>
-      <c r="U2" s="73"/>
-      <c r="V2" s="73"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="74" t="s">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="82"/>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="83"/>
+      <c r="X2" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="73" t="s">
+      <c r="Y2" s="47" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="75" t="s">
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="75" t="s">
+      <c r="D3" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="75" t="s">
+      <c r="E3" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="70" t="s">
+      <c r="I3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="70" t="s">
+      <c r="J3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="77" t="s">
+      <c r="L3" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="77" t="s">
+      <c r="M3" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="77" t="s">
+      <c r="N3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="78" t="s">
+      <c r="O3" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="78" t="s">
+      <c r="P3" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="78" t="s">
+      <c r="Q3" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="78" t="s">
+      <c r="R3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="78" t="s">
+      <c r="S3" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="78" t="s">
+      <c r="T3" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="78" t="s">
+      <c r="U3" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="78" t="s">
+      <c r="V3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="78" t="s">
+      <c r="W3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="73"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="47"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
-      <c r="R4" s="78"/>
-      <c r="S4" s="78"/>
-      <c r="T4" s="78"/>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="74"/>
-      <c r="Y4" s="73"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="80"/>
+      <c r="Y4" s="47"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="N3:N4"/>
@@ -1584,17 +1638,8 @@
     <mergeCell ref="M3:M4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="L3:L4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D3:D4"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="O2:W2"/>
@@ -1602,11 +1647,6 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="W3:W4"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1631,60 +1671,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="54" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="18" t="s">
         <v>48</v>
       </c>
@@ -1745,60 +1785,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="53"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
-      <c r="B3" s="57" t="s">
+      <c r="A3" s="64"/>
+      <c r="B3" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
+      <c r="A4" s="64"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="20" t="s">
         <v>48</v>
       </c>
@@ -1854,46 +1894,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="71"/>
+      <c r="D4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="71"/>
+      <c r="F4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="59"/>
+      <c r="G4" s="71"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="59"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="25" t="s">
         <v>45</v>
       </c>
@@ -1970,40 +2010,40 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="60" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="60" t="s">
+      <c r="E2" s="73"/>
+      <c r="F2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="61"/>
-      <c r="H2" s="60" t="s">
+      <c r="G2" s="73"/>
+      <c r="H2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="61"/>
-      <c r="L2" s="60" t="s">
+      <c r="K2" s="73"/>
+      <c r="L2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="61"/>
-      <c r="N2" s="60" t="s">
+      <c r="M2" s="73"/>
+      <c r="N2" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="61"/>
+      <c r="O2" s="73"/>
     </row>
     <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="63"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
@@ -2080,11 +2120,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2116,40 +2156,40 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="60" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="60" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="60" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="60" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="60" t="s">
+      <c r="K3" s="73"/>
+      <c r="L3" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="61"/>
-      <c r="N3" s="60" t="s">
+      <c r="M3" s="73"/>
+      <c r="N3" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="61"/>
+      <c r="O3" s="73"/>
     </row>
     <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="63"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2228,162 +2268,162 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="77" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="65"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="65"/>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
+      <c r="A4" s="77"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="65"/>
-      <c r="L5" s="65"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="65"/>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65" t="s">
+      <c r="A6" s="77"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="65" t="s">
+      <c r="D6" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65" t="s">
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="65" t="s">
+      <c r="G7" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="65" t="s">
+      <c r="H7" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="65" t="s">
+      <c r="J7" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="65" t="s">
+      <c r="K7" s="77" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="65" t="s">
+      <c r="L7" s="77" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="65"/>
-      <c r="L8" s="65"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="65"/>
-      <c r="L9" s="65"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="77"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="65"/>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
+      <c r="A10" s="77"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
@@ -2586,11 +2626,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="34" t="s">
         <v>79</v>
       </c>
@@ -2643,11 +2683,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
       <c r="D2" s="34" t="s">
         <v>79</v>
       </c>
@@ -2768,16 +2808,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="67"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
+      <c r="A1" s="45"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -2835,14 +2875,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="68"/>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -2957,24 +2997,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="47" t="s">
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="48"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="59"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="38" t="s">
         <v>93</v>
       </c>
@@ -3093,16 +3133,16 @@
     </row>
     <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="51" t="s">
+      <c r="A16" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>

--- a/Statystyki_2018/obj/Release/Package/PackageTmp/Template/aglg2.xlsx
+++ b/Statystyki_2018/obj/Release/Package/PackageTmp/Template/aglg2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rskowron\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA037FC9-C2C9-48BA-B3A1-06D59015C0F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E2EFA1-91AA-4101-94F5-43DB3CCF8172}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7935" tabRatio="818" firstSheet="5" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wydajność sędziów " sheetId="1" r:id="rId1"/>
@@ -946,32 +946,47 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1039,23 +1054,8 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1426,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O2" sqref="O2:W2"/>
     </sheetView>
   </sheetViews>
@@ -1474,163 +1474,149 @@
       <c r="Y1" s="44"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50" t="s">
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="s">
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="54" t="s">
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="81" t="s">
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="82"/>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="78" t="s">
+      <c r="P2" s="59"/>
+      <c r="Q2" s="59"/>
+      <c r="R2" s="59"/>
+      <c r="S2" s="59"/>
+      <c r="T2" s="59"/>
+      <c r="U2" s="59"/>
+      <c r="V2" s="59"/>
+      <c r="W2" s="60"/>
+      <c r="X2" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="Y2" s="47" t="s">
+      <c r="Y2" s="56" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="50"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="49" t="s">
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="49" t="s">
+      <c r="D3" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="49" t="s">
+      <c r="E3" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="49" t="s">
+      <c r="F3" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="51" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="49" t="s">
         <v>9</v>
       </c>
       <c r="K3" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="L3" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="48" t="s">
+      <c r="N3" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="53" t="s">
+      <c r="O3" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="53" t="s">
+      <c r="P3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="53" t="s">
+      <c r="Q3" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="53" t="s">
+      <c r="R3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="53" t="s">
+      <c r="S3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="53" t="s">
+      <c r="U3" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="V3" s="53" t="s">
+      <c r="V3" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="W3" s="53" t="s">
+      <c r="W3" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="47"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="56"/>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="50"/>
-      <c r="B4" s="50"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
+      <c r="A4" s="49"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
       <c r="K4" s="52"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="48"/>
-      <c r="N4" s="48"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="80"/>
-      <c r="Y4" s="47"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="48"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="48"/>
+      <c r="V4" s="48"/>
+      <c r="W4" s="48"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="56"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="30">
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="X2:X4"/>
     <mergeCell ref="Y2:Y4"/>
     <mergeCell ref="N3:N4"/>
@@ -1647,6 +1633,20 @@
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
   </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1664,67 +1664,67 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="7" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="6.28515625" customWidth="1"/>
     <col min="9" max="11" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="66" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
       <c r="D4" s="18" t="s">
         <v>48</v>
       </c>
@@ -1776,7 +1776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="7" width="7.28515625" customWidth="1"/>
@@ -1785,60 +1785,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
     </row>
     <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64"/>
-      <c r="B3" s="69" t="s">
+      <c r="A3" s="69"/>
+      <c r="B3" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
     </row>
     <row r="4" spans="1:11" ht="96" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64"/>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
       <c r="D4" s="20" t="s">
         <v>48</v>
       </c>
@@ -1894,46 +1894,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
     </row>
     <row r="4" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="76" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71" t="s">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="71"/>
+      <c r="A5" s="76"/>
       <c r="B5" s="25" t="s">
         <v>45</v>
       </c>
@@ -1988,7 +1988,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2010,40 +2010,40 @@
       <c r="O1" s="2"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="72" t="s">
+      <c r="C2" s="78"/>
+      <c r="D2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="73"/>
-      <c r="F2" s="72" t="s">
+      <c r="E2" s="78"/>
+      <c r="F2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="72" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="72" t="s">
+      <c r="I2" s="78"/>
+      <c r="J2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="73"/>
-      <c r="L2" s="72" t="s">
+      <c r="K2" s="78"/>
+      <c r="L2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="M2" s="73"/>
-      <c r="N2" s="72" t="s">
+      <c r="M2" s="78"/>
+      <c r="N2" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="73"/>
+      <c r="O2" s="78"/>
     </row>
     <row r="3" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="11" t="s">
         <v>65</v>
       </c>
@@ -2110,21 +2110,21 @@
   <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:IV20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
     <col min="2" max="15" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -2156,40 +2156,40 @@
       <c r="O2" s="2"/>
     </row>
     <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="72" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="73"/>
-      <c r="F3" s="72" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="72" t="s">
+      <c r="I3" s="78"/>
+      <c r="J3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="72" t="s">
+      <c r="K3" s="78"/>
+      <c r="L3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="M3" s="73"/>
-      <c r="N3" s="72" t="s">
+      <c r="M3" s="78"/>
+      <c r="N3" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="O3" s="73"/>
+      <c r="O3" s="78"/>
     </row>
     <row r="4" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="75"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="11" t="s">
         <v>65</v>
       </c>
@@ -2256,8 +2256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2268,292 +2268,210 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="82" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="82" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="77"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
+      <c r="A3" s="82"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="82"/>
+      <c r="L3" s="82"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="77"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="77"/>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
     </row>
     <row r="6" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="77"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77" t="s">
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="82" t="s">
         <v>84</v>
       </c>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77" t="s">
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="82"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="77"/>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="82"/>
+      <c r="C7" s="82"/>
+      <c r="D7" s="82" t="s">
         <v>86</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="77" t="s">
+      <c r="F7" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="77" t="s">
+      <c r="G7" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="77" t="s">
+      <c r="H7" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="77" t="s">
+      <c r="I7" s="82" t="s">
         <v>88</v>
       </c>
-      <c r="J7" s="77" t="s">
+      <c r="J7" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="K7" s="77" t="s">
+      <c r="K7" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="L7" s="77" t="s">
+      <c r="L7" s="82" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="77"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
+      <c r="C8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
+      <c r="H8" s="82"/>
+      <c r="I8" s="82"/>
+      <c r="J8" s="82"/>
+      <c r="K8" s="82"/>
+      <c r="L8" s="82"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="77"/>
-      <c r="B9" s="77"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="77"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
     </row>
     <row r="11" spans="1:12" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="42">
-        <v>86</v>
-      </c>
-      <c r="C11" s="42">
-        <v>88</v>
-      </c>
-      <c r="D11" s="42">
-        <v>59</v>
-      </c>
-      <c r="E11" s="42">
-        <v>21</v>
-      </c>
-      <c r="F11" s="42">
-        <v>8</v>
-      </c>
-      <c r="G11" s="43">
-        <f>F11/C11</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="H11" s="42">
-        <v>79</v>
-      </c>
-      <c r="I11" s="42">
-        <v>61</v>
-      </c>
-      <c r="J11" s="42">
-        <v>17</v>
-      </c>
-      <c r="K11" s="42">
-        <v>1</v>
-      </c>
-      <c r="L11" s="43">
-        <f>K11/H11</f>
-        <v>1.2658227848101266E-2</v>
-      </c>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B12" s="42">
-        <v>7</v>
-      </c>
-      <c r="C12" s="42">
-        <v>7</v>
-      </c>
-      <c r="D12" s="42">
-        <v>6</v>
-      </c>
-      <c r="E12" s="42">
-        <v>0</v>
-      </c>
-      <c r="F12" s="42">
-        <v>1</v>
-      </c>
-      <c r="G12" s="43">
-        <f>F12/C12</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="H12" s="42">
-        <f>SUM(I12,J12,K12)</f>
-        <v>5</v>
-      </c>
-      <c r="I12" s="42">
-        <v>4</v>
-      </c>
-      <c r="J12" s="42">
-        <v>1</v>
-      </c>
-      <c r="K12" s="42">
-        <v>0</v>
-      </c>
-      <c r="L12" s="43">
-        <f>K12/H12</f>
-        <v>0</v>
-      </c>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="42">
-        <f>SUM(B11:B12)</f>
-        <v>93</v>
-      </c>
-      <c r="C13" s="42">
-        <f>SUM(C11:C12)</f>
-        <v>95</v>
-      </c>
-      <c r="D13" s="42">
-        <f>SUM(D11:D12)</f>
-        <v>65</v>
-      </c>
-      <c r="E13" s="42">
-        <f>SUM(E11:E12)</f>
-        <v>21</v>
-      </c>
-      <c r="F13" s="42">
-        <f>SUM(F11:F12)</f>
-        <v>9</v>
-      </c>
-      <c r="G13" s="43">
-        <f>F13/C13</f>
-        <v>9.4736842105263161E-2</v>
-      </c>
-      <c r="H13" s="42">
-        <f>SUM(H11:H12)</f>
-        <v>84</v>
-      </c>
-      <c r="I13" s="42">
-        <f>SUM(I11:I12)</f>
-        <v>65</v>
-      </c>
-      <c r="J13" s="42">
-        <f>SUM(J11:J12)</f>
-        <v>18</v>
-      </c>
-      <c r="K13" s="42">
-        <f>SUM(K11:K12)</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="43">
-        <f>K13/H13</f>
-        <v>1.1904761904761904E-2</v>
-      </c>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="43"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -2606,55 +2524,49 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="34.5703125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="34" t="s">
         <v>79</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2663,55 +2575,49 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:I2"/>
+  <dimension ref="A2:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="4"/>
-    <col min="3" max="3" width="16.85546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13" style="4" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="4"/>
-    <col min="8" max="8" width="14.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="35.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="14.140625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="34" t="s">
+      <c r="B2" s="34" t="s">
         <v>79</v>
       </c>
+      <c r="C2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>26</v>
+      </c>
       <c r="E2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="F2" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="1">
-    <mergeCell ref="A2:C2"/>
-  </mergeCells>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -2728,7 +2634,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -2793,7 +2699,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.140625" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" customWidth="1"/>
@@ -2870,7 +2776,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2928,7 +2834,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="32.42578125" customWidth="1"/>
     <col min="2" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
   </cols>
@@ -2989,7 +2895,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
     <col min="2" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
@@ -2997,24 +2903,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="59"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="64"/>
     </row>
     <row r="3" spans="1:9" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="38" t="s">
         <v>93</v>
       </c>
@@ -3133,16 +3039,16 @@
     </row>
     <row r="15" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
+      <c r="A17" s="67"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
     </row>
     <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
